--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,13 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,17 +59,20 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,13 +435,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -474,163 +488,172 @@
           <t>Jahr</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DBSM-Bestand</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1360321411</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1360321411/04/text</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1360321411/04/pdf</t>
+          <t>1022149695</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1022149695/04/text</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1022149695/04/pdf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (2), Bibliografie (3)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Die Berliner Jahre - Blackbox #15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Handbuch Wohnungsnot und Obdachlosigkeit</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Paegelow, Claus</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bröhan Museum</t>
+          <t>Claus Paegelow</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2012]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>135970115X</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135970115X/04/text</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135970115X/04/pdf</t>
+          <t>1217622004</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1217622004/04/text</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1217622004/04/pdf</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Facsimile (1), Faksimile (2)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Grafik-Blicke</t>
+          <t>Koncert  č. 2 Es dur pro klavír a orchestr</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kirchheim, Jakob</t>
+          <t>Rösler, Johann Joseph</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kirchheim, Jakob</t>
+          <t>Bärenreiter</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2018]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1359486860</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359486860/04/text</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359486860/04/pdf</t>
+          <t>1217622055</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1217622055/04/text</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1217622055/04/pdf</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Archiv (2)</t>
+          <t>Facsimile (1), Faksimile (2)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kleine Schriften</t>
+          <t>Koncert č. 2 Es dur pro klavír a orchestr</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Burkert, Walter</t>
+          <t>Rösler, Johann Joseph</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vandenhoeck &amp; Ruprecht</t>
+          <t>Bärenreiter</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2018]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1359386513</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359386513/04/text</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359386513/04/pdf</t>
+          <t>1225056551</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1225056551/04/text</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1225056551/04/pdf</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliografie (1), Zensur (1)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jenseits der Abbruchkante</t>
+          <t>Geschichte der polnischen Gegenwartsliteratur 1976-2020</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vögele, Wolfgang</t>
+          <t>Czapliński, Przemysław</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>LIT</t>
+          <t>Universitätsverlag Winter</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -642,273 +665,284 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>135910027X</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135910027X/04/text</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135910027X/04/pdf</t>
+          <t>1225563690</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1225563690/04/text</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1225563690/04/pdf</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Bibliografie (1), Museum (1)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hannes, Meister der Verwandlung</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sprenger, Frederik</t>
+          <t>Die Prager Palais Schwarzenberg und Salm</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FS Kinderbuchverlag</t>
+          <t>Nationalgalerie Prag</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2018]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1358713243</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358713243/04/text</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358713243/04/pdf</t>
+          <t>1260158403</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1260158403/04/text</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1260158403/04/pdf</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Buchdruck (1), Faksimile (1), Inkunabel (1)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mein Ausbildungsatlas Stadt Düsseldorf/Rhein-Kreis Neuss</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Ypsilon träumt</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carl, Siegfried</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BVB, Fachverlag für kommunale Informationen</t>
+          <t>BoD - Books on Demand</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2022]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1358340757</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358340757/04/text</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358340757/04/pdf</t>
+          <t>1264668147</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1264668147/04/text</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1264668147/04/pdf</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Archiv (9)</t>
+          <t>Handschrift (1), Inkunabel (1), Inkunabeln (1)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lebendige Erinnerung – Archiv DDR</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Unbekannte Fragmente eines medizinisch-pharmakologischen Sammelcodex des späten 10. Jahrhunderts</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jacobsen, Peter Christian</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Peter Lang GmbH, Internationaler Verlag der Wissenschaften</t>
+          <t>FAU University Press</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1358253633</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358253633/04/text</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358253633/04/pdf</t>
+          <t>1268131288</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1268131288/04/text</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1268131288/04/pdf</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliography (1), Illumination (3)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Arte flotante</t>
+          <t>Comparison and investigation of various topography sensors using a multisensor measuring system</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bohnenblust, Laura</t>
+          <t>Hagemeier, Sebastian</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>edition metzel</t>
+          <t>Kassel University Press</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[c2022]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1357714408</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357714408/04/text</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357714408/04/pdf</t>
+          <t>1269975013</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1269975013/04/text</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1269975013/04/pdf</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliographie (1), Handschrift (7)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Das Himmlische Jerusalem</t>
+          <t>Die metrische Psalmenmetaphrase des Manuel Philes</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Schmidt, Adelheid</t>
+          <t>Gioffreda, Anna</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Frieling &amp; Huffmann</t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1356832237</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1356832237/04/text</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1356832237/04/pdf</t>
+          <t>1274566320</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1274566320/04/text</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1274566320/04/pdf</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliographie (1), Museum (1)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23. Internationale Geodätische Woche Obergurgl 2025</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Raumbilder und ihre Gebrauchsweisen</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bruns, Charlotte</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Wichmann, H</t>
+          <t>Büchner-Verlag</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1356733522</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1356733522/04/text</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1356733522/04/pdf</t>
+          <t>1301008524</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1301008524/04/text</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1301008524/04/pdf</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Korrespondenz (1), Urheberrecht (5), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>What can a group of citizens do?</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Handbuch für Immobilienmakler und Immobilienberater</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sailer, Erwin</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>iwalewabooks</t>
+          <t>C.H. Beck</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -920,112 +954,111 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1355242479</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1355242479/04/text</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1355242479/04/pdf</t>
+          <t>1302387669</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1302387669/04/text</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1302387669/04/pdf</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Museum (14)</t>
+          <t>Archiv (1), Verlag (1)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Secret Washington D.C.</t>
+          <t>Die Akte X Chronik</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pendana, Sharon</t>
+          <t>Prahl, Reinhard</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Jonglez Publishing</t>
+          <t>In Farbe und Bunt, Verlag Björn Sülter</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1355051991</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1355051991/04/text</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1355051991/04/pdf</t>
+          <t>1304265056</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1304265056/04/text</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1304265056/04/pdf</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Museum (12)</t>
+          <t>Archiv (2), Restaurierung (1)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Museum to go</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>Studien zum antiken Ägypten und verwandten Gebieten</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>transcript</t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1355051487</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1355051487/04/text</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1355051487/04/pdf</t>
+          <t>1311135529</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1311135529/04/text</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1311135529/04/pdf</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Verlag (2), Verlagswesen (1), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nachhaltigkeitsprobleme kommunizieren</t>
+          <t>"Artists &amp; Photographs", New York 1970</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Theiler, Lena</t>
+          <t>Barutzki, Kathrin</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1042,193 +1075,200 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1353783774</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1353783774/04/text</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1353783774/04/pdf</t>
+          <t>1311454896</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1311454896/04/text</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1311454896/04/pdf</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (5)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Conditoria provinciarum</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Faszination Kreta</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kleemann, Claudia</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Franz Steiner Verlag</t>
+          <t xml:space="preserve">Claudia Kleemann </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2023]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1353511200</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1353511200/04/text</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1353511200/04/pdf</t>
+          <t>1322051208</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1322051208/04/text</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1322051208/04/pdf</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Museum (2)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Auschwitz</t>
+          <t>Marianne Pirker</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Willems, Susanne</t>
+          <t>Beier, Mirijam</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Edition ost</t>
+          <t>Königshausen &amp; Neumann</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1353344541</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1353344541/04/text</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1353344541/04/pdf</t>
+          <t>1322310912</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1322310912/04/text</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1322310912/04/pdf</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Manuscript (1)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>People and Pianos</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Greek culture in Hellenistic Egypt</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Michael Imhof Verlag</t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1350864145</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350864145/04/text</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350864145/04/pdf</t>
+          <t>132358904X</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/132358904X/04/text</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/132358904X/04/pdf</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Bibliography (1), List of illustrations (1)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gustav Landauer als jüdischer Intellektueller?</t>
+          <t>Horseman Bugatti</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Venske, Sebastian</t>
+          <t>Furger, Andres</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>De Gruyter Oldenbourg</t>
+          <t>Andres Furger</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1.9.2020</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1350424757</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350424757/04/text</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350424757/04/pdf</t>
+          <t>1324268786</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1324268786/04/text</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1324268786/04/pdf</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Archiv (2), Museum (3)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Von Odesa nach Berlin</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>Die frühe Musealisierung der DDR</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Thaa, Lotte</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hirmer</t>
+          <t>transcript</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1240,1663 +1280,1605 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1350023825</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350023825/04/text</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350023825/04/pdf</t>
+          <t>1325720119</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1325720119/04/text</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1325720119/04/pdf</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Museum (3)</t>
+          <t>Geistiges Eigentum (3), Urheberrecht (23)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Secret Rio de Janeiro</t>
+          <t>Urheberrecht und Scharia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>de Almeida e Silva, Manoel</t>
+          <t>Zomorrodi, Maurice</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Jonglez Verlag</t>
+          <t>V &amp; R unipress</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>135002256X</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135002256X/04/text</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135002256X/04/pdf</t>
+          <t>1326591150</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1326591150/04/text</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1326591150/04/pdf</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Initial (1), Radierung (1)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Soul of Tokyo</t>
+          <t>Post/koloniale Verstrickungen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Péchiodat, Fany</t>
+          <t>Peyer, Siri</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonglez Publishing  </t>
+          <t>Diaphanes</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>February 2025</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1349891797</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349891797/04/text</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349891797/04/pdf</t>
+          <t>1327616912</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1327616912/04/text</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1327616912/04/pdf</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (8)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Contemporary studies and theories in gastronomy and food science</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Eine Krone mit verschiedenen Verzierungen samt Glöckl und Steinen</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Heimann-Jelinek, Felicitas</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Peter Lang</t>
+          <t>Böhlau Verlag | Brill Österreich GmbH</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1349754420</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349754420/04/text</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349754420/04/pdf</t>
+          <t>1328237796</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1328237796/04/text</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1328237796/04/pdf</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliographie (1), Gravur (1), Gravure (1)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Draußen in der Stadt!</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Jung, Kerstin</t>
+          <t>Lumières nouvelles sur le sacré</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Don Bosco Medien</t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1347137173</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347137173/04/text</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347137173/04/pdf</t>
+          <t>1328695336</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1328695336/04/text</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1328695336/04/pdf</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Archiv (4), Konservierung (2), Museum (3)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Die 100 schönsten Familien-Erlebnisse in Bayern ... die Ihre Kids lieben werden</t>
+          <t>Restatement of Restitution Rules for Nazi-Confiscated Art</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bahnmüller, Lisa</t>
+          <t>Weller, Matthias</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Berg  </t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1347129030</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347129030/04/text</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347129030/04/pdf</t>
+          <t>1328798402</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1328798402/04/text</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1328798402/04/pdf</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Copyright (1), Museum (18)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Der Garten von Emil Nolde</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Moeller, Magdalena M.</t>
+          <t>Virtual museums - a plea</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Prestel</t>
+          <t>Deutscher Kunstverlag</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1347123563</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347123563/04/text</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347123563/04/pdf</t>
+          <t>1329639723</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1329639723/04/text</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1329639723/04/pdf</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Museum (2)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Usbekistan</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Thöns, Irina</t>
+          <t>Colonial - Switzerland's global entanglements</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Trescher Verlag</t>
+          <t>Scheidegger &amp; Spiess</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1346174903</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174903/04/text</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174903/04/pdf</t>
+          <t>1329997719</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1329997719/04/text</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1329997719/04/pdf</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Museum (3)</t>
+          <t>Bibliography (1), Initial (1)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lieblingsplätze im Lahntal</t>
+          <t>Physics-based and data-driven multiscale modeling of the structural formation in macromolecular systems</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Reidt, Andrea</t>
+          <t>Depta, Philipp Nicolas</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gmeiner</t>
+          <t>Cuvillier Verlag</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1346174679</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174679/04/text</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174679/04/pdf</t>
+          <t>1330962788</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1330962788/04/text</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1330962788/04/pdf</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Museum (4)</t>
+          <t>E-Book (3), Lesezeichen (1)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lieblingsplätze in Strassburg und Umgebung</t>
+          <t>Einstieg in den Mac</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Woltersdorff, Stefan</t>
+          <t>Albrecht, Uwe</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Gmeiner</t>
+          <t>Markt + Technik</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1346174458</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174458/04/text</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174458/04/pdf</t>
+          <t>1334094438</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1334094438/04/text</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1334094438/04/pdf</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Museum (7)</t>
+          <t>Bibliographie (1), Handschrift (5)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lieblingsplätze Tölzer Land - Tegernsee - Schliersee</t>
+          <t>Zwischen Engeln und Menschen</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hoffmann, Heike</t>
+          <t>Wagner, Andreas M.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gmeiner-Verlag GmbH</t>
+          <t>Mohr Siebeck</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1346174245</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174245/04/text</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346174245/04/pdf</t>
+          <t>1334378614</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1334378614/04/text</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1334378614/04/pdf</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliografie (1), Bibliography (1), Museum (2)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lieblingsplätze mit Hund Ostsee Schleswig-Holstein mit Fehmarn</t>
+          <t>Almut Heise - catalogue raisonné</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brandt, Patricia</t>
+          <t>Heise, Almut</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Gmeiner</t>
+          <t>DISTANZ Verlag</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1346172692</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346172692/04/text</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346172692/04/pdf</t>
+          <t>133437998X</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/133437998X/04/text</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/133437998X/04/pdf</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Archiv (1), Holzschnitt (1), Kupferstich (5)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lieblingsplätze in Kassel und Nordhessen</t>
+          <t>Der Landarzt und Arzneimittelfabrikant Johann Andreas Eisenbarth (1663-1727)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Edelmann, Rüdiger</t>
+          <t>Hieke, Karl</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Gmeiner</t>
+          <t>Edition Dr. Eike Pies im CARDAMINA VERLAG Susanne Breuel</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>134617265X</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/134617265X/04/text</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/134617265X/04/pdf</t>
+          <t>1335321691</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1335321691/04/text</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1335321691/04/pdf</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Museum (4)</t>
+          <t>Archiv (1), Zensur (1)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lieblingsplätze im Engadin</t>
+          <t>Spektakuläre Gewaltakte</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Badraun, Daniel</t>
+          <t>Florin, Moritz</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Gmeiner</t>
+          <t>De Gruyter Oldenbourg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1346172404</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346172404/04/text</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1346172404/04/pdf</t>
+          <t>1338292048</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338292048/04/text</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338292048/04/pdf</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Museum (5)</t>
+          <t>Handschrift (1), Manuscript (2)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lieblingsplätze in der Wesermarsch und umzu</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Manski, Natascha</t>
+          <t>Der Perlentaucher</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Gmeiner</t>
+          <t>Harrassowitz Verlag</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1345841655</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345841655/04/text</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345841655/04/pdf</t>
+          <t>1338422898</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338422898/04/text</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338422898/04/pdf</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliography (1), List of illustrations (1)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Glücksorte in der Holsteinischen Schweiz</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Stährmann, Birte</t>
+          <t>Letters written from the theatre of life</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Droste</t>
+          <t>Georg Olms Verlag</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1345841566</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345841566/04/text</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345841566/04/pdf</t>
+          <t>133879843X</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/133879843X/04/text</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/133879843X/04/pdf</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Museum (6)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Glücksorte in Vorarlberg</t>
+          <t>Top 10 Amsterdam</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Feltes, Silke Katinka</t>
+          <t>Duncan, Fiona Alison</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Droste</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1345840470</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345840470/04/text</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345840470/04/pdf</t>
+          <t>1338799509</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338799509/04/text</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338799509/04/pdf</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (2)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Glücksorte im südlichen Oberbayern</t>
+          <t>Top 10 München</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Wegener, Katja</t>
+          <t>Ledig, Elfriede</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Droste</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1345840233</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345840233/04/text</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345840233/04/pdf</t>
+          <t>1338938703</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338938703/04/text</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1338938703/04/pdf</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Museum (1), Provenienzforschung (1)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Glücksorte in der Welterberegion Wartburg Hainich</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Schwarzkopf, Antonia</t>
+          <t>An die Wand oder in den Giftschrank?</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Droste</t>
+          <t>Lindenau-Museum Altenburg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1345838514</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345838514/04/text</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345838514/04/pdf</t>
+          <t>1339300907</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1339300907/04/text</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1339300907/04/pdf</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (2)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Blaue Glücksorte in und um Leipzig</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Reinhardt, Manja</t>
+          <t>Praxis Geschichte</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Droste</t>
+          <t>westermann</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1345324030</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345324030/04/text</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345324030/04/pdf</t>
+          <t>1339539381</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1339539381/04/text</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1339539381/04/pdf</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (3)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Das Parlament der Natur</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Darwin, Sarah</t>
+          <t>Das Mainzer Bürgertum im Schloss</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Propyläen Verlag</t>
+          <t>Nünnerich-Asmus Verlag &amp; Media</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1342544889</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342544889/04/text</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342544889/04/pdf</t>
+          <t>1340014009</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1340014009/04/text</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1340014009/04/pdf</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Museum (6)</t>
+          <t>Buchdruck (1), Museum (1)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Einfach New York!</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Lohs, Cornelia</t>
+          <t>Durchblick - Geografie Geschichte</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bruckmann</t>
+          <t>westermann</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1342249690</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342249690/04/text</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342249690/04/pdf</t>
+          <t>1340393352</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1340393352/04/text</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1340393352/04/pdf</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Bibliografie (1), Bibliography (1), Colophon (1)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Komm mit ins Deutsche Museum</t>
+          <t>Akseli Gallen-Kallela - Finnland erfinden</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hellmann, Claudia</t>
+          <t>Gallen-Kallela, Akseli</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Deutsches Museum</t>
+          <t>Verlag der Buchhandlung Walther und Franz König</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1338800353</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338800353/04/text</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338800353/04/pdf</t>
+          <t>1341248941</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1341248941/04/text</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1341248941/04/pdf</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Verlag (1), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>Revisiting the "Rock Groupie"</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Nowak, Christian</t>
+          <t>Katharina, Alexi</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baedeker </t>
+          <t>Universitätsverlag Hildesheim</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1338797433</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338797433/04/text</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338797433/04/pdf</t>
+          <t>1341340449</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1341340449/04/text</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1341340449/04/pdf</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (3)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Verfassungsorte</t>
+          <t>Rotenburg (Wümme) Reiseführer</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Miller, Russell A.</t>
+          <t>Schnelle, Michael</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Kunth</t>
+          <t>Edition Falkenberg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>133829198X</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/133829198X/04/text</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/133829198X/04/pdf</t>
+          <t>1341753034</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1341753034/04/text</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1341753034/04/pdf</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (3), Autograph (1), Autographe (1), Manuskript (1)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Einfach Madeira!</t>
+          <t>Die Akte/n</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Karlmann, Alexander</t>
+          <t>Lindner, Felix</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Bruckmann</t>
+          <t>J.B. Metzler</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>133804673X</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/133804673X/04/text</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/133804673X/04/pdf</t>
+          <t>1342545559</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1342545559/04/text</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1342545559/04/pdf</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Druckgrafik (1), Handschrift (2), Museum (34), Radierung (4), Siebdruck (2)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Gardasee</t>
+          <t>Streifzüge durch Oldenburger Ausstellungen</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Aigner, Gottfried</t>
+          <t>Weichardt, Jürgen</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>GRÄFE UND UNZER VERLAG GmbH</t>
+          <t>Isensee Verlag</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1338046136</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338046136/04/text</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338046136/04/pdf</t>
+          <t>1343126932</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1343126932/04/text</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1343126932/04/pdf</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Kulturerbe (1), Museum (2)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rügen, Hiddensee und Stralsund</t>
+          <t>Genau Neu 8 Textboken</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gartz, Katja</t>
+          <t>Gustafsson, Monica.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>GRÄFE UND UNZER Verlag GmbH</t>
+          <t>Sanoma Utbildning</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1338044826</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338044826/04/text</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338044826/04/pdf</t>
+          <t>1343246253</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1343246253/04/text</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1343246253/04/pdf</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Museum (7)</t>
+          <t>Archiv (1), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Wien</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Berger, Daniel</t>
+          <t>1324-2024: 700 Jahre Flörsbach &amp; Kempfenbrunn</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>GRÄFE UND UNZER Verlag GmbH</t>
+          <t>Gemeinde Flörsbachtal</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1338043099</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338043099/04/text</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338043099/04/pdf</t>
+          <t>1343925061</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1343925061/04/text</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1343925061/04/pdf</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (6), Bibliography (1), Initial (1)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Kreta</t>
+          <t>Florentine banks in Germany</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Verigou, Klio</t>
+          <t>Weissen, Kurt</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>GRÄFE UND UNZER VERLAG GmbH</t>
+          <t>Heidelberg University Publishing</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1332165524</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1332165524/04/text</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1332165524/04/pdf</t>
+          <t>1344403476</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344403476/04/text</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344403476/04/pdf</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Archiv (1), Verlag (1)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Raumpolitik</t>
+          <t>Europäische Verwaltung zwischen Autonomie und Verantwortlichkeit</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dell, Christopher</t>
+          <t>Wedemeyer, Sven Minyoung</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>transcript</t>
+          <t>Mohr Siebeck</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1327050536</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1327050536/04/text</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1327050536/04/pdf</t>
+          <t>1344415210</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344415210/04/text</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344415210/04/pdf</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliografie (1), Bibliography (1), Radierung (1)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hegel und die Herausforderungen unserer Zeit</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>Almut Heise - catalogue raisonné</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Heise, Almut</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Brill  Fink</t>
+          <t>DISTANZ Verlag</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1325723215</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325723215/04/text</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325723215/04/pdf</t>
+          <t>1344518338</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344518338/04/text</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344518338/04/pdf</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Colophon (1), Typography (1)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Neuenburg am Rhein</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Studer, Winfried</t>
+          <t>Where the wild lines are</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Silberburg</t>
+          <t>Verlag der Buchhandlung Walther und Franz König</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1325722332</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325722332/04/text</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325722332/04/pdf</t>
+          <t>1344519628</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344519628/04/text</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344519628/04/pdf</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Archiv (1), Holzstich (2), Lithographie (3), Museum (1)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Skandinavien</t>
+          <t>Blätter aus der Arbeitsmappe von Ernst Weidenbach</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Strand, Hans</t>
+          <t>Konrad, Kirsten</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Frederking &amp; Thaler</t>
+          <t>EB-Verlag</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1325600059</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325600059/04/text</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325600059/04/pdf</t>
+          <t>1344944302</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344944302/04/text</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344944302/04/pdf</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Manuskript (1), Radierung (1)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Nietzsche forever?</t>
+          <t>Jesuit und Neuzeit</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Straka, Barbara</t>
+          <t>Knebel, Sven K.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Schwabe Verlagsgruppe AG Schwabe Verlag</t>
+          <t>Brill Fink</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1322051615</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1322051615/04/text</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1322051615/04/pdf</t>
+          <t>1344944744</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344944744/04/text</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344944744/04/pdf</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Archiv (1), Bibliografie (1)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Exponierte Formen der Gewalt</t>
+          <t>Wie der Verwaltungscomputer die Arbeitsmigration programmierte</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kastner, Fabian</t>
+          <t>Mähr, Moritz</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Königshausen &amp; Neumann</t>
+          <t>Brill Schöningh</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>131145702X</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/131145702X/04/text</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/131145702X/04/pdf</t>
+          <t>1344948626</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344948626/04/text</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1344948626/04/pdf</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Museum (3)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mein perfektes Wochenende - Wien</t>
+          <t>Kleine Geschichte des Hausgartens und seiner Nutzpflanzen</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Reiserer, Lothar</t>
+          <t>Bedal, Hannelore</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bruckmann</t>
+          <t>Fränkisches Freilandmuseum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1306860849</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1306860849/04/text</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1306860849/04/pdf</t>
+          <t>1345843933</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1345843933/04/text</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1345843933/04/pdf</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Archiv (2)</t>
+          <t>Archiv (2), Bibliographie (1), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Kleine Schriften</t>
+          <t>Wiskiauten/Mochovoe</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Burkert, Walter</t>
+          <t>Jahn, Christoph</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Vandenhoeck &amp; Ruprecht</t>
+          <t>Georg Olms Verlag</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1302198246</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1302198246/04/text</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1302198246/04/pdf</t>
+          <t>1345914156</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1345914156/04/text</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1345914156/04/pdf</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Korrespondenz (1), Museum (15)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Globalizing the Avant-Garde</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>Das Museum als Arena</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>De Gruyter</t>
+          <t>Buchhandlung Walther König</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[2025]</t>
+          <t>2001</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1181367271</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1181367271/04/text</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1181367271/04/pdf</t>
+          <t>1345924445</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1345924445/04/text</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1345924445/04/pdf</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Lecture (1), Manuscript (2), Watermark (1)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Maximilian I. (1459-1519)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Hollegger, Manfred</t>
+          <t>Deciphering the illegible</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Verlag W. Kohlhammer</t>
+          <t>Harrassowitz Verlag</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>135968493X</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135968493X/04/text</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135968493X/04/pdf</t>
+          <t>1346927081</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1346927081/04/text</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1346927081/04/pdf</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Buchmalerei (1), Radierung (1), Restaurierung (1)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Schweinfurt - gestern &amp; heute</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Erhard, Bruno</t>
+          <t>Grenzen und Spielräume künstlerischer Erfindung</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sutton Verlag</t>
+          <t>Rhema</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2908,121 +2890,116 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1359684875</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359684875/04/text</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359684875/04/pdf</t>
+          <t>1347126996</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1347126996/04/text</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1347126996/04/pdf</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliography (1), Colophon (1)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sauerland</t>
+          <t>The honest eye: Camille Pissarro's impressionism</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nierhoff, Joachim</t>
+          <t>Pissarro, Camille</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Sutton</t>
+          <t>Museum Barberini</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1359684506</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359684506/04/text</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359684506/04/pdf</t>
+          <t>1347128948</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1347128948/04/text</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1347128948/04/pdf</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliographie (1), Museum (2)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Das Saarland</t>
+          <t>Die ewige Jugend des Axolotls</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Koch, Jörg</t>
+          <t>Cota Hiriart, Andrés</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Sutton</t>
+          <t>btb</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>Juni 2025</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1359455477</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359455477/04/text</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359455477/04/pdf</t>
+          <t>134803291X</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/134803291X/04/text</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/134803291X/04/pdf</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Archiv (1), Bibliografie (1)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Das Praxisbuch Samsung Galaxy A56 5G</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Gievers, Rainer</t>
+          <t>Die Protokolle des cisleithanischen Ministerrates 1867-1918</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rainer Gievers Gicom Verlag</t>
+          <t>Verlag der Österreichischen Akademie der Wissenschaften</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3034,75 +3011,74 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1359385045</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359385045/04/text</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359385045/04/pdf</t>
+          <t>1348036354</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348036354/04/text</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348036354/04/pdf</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (42)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Restitution</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>Mehr Erleben am Bodensee</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Klemann, Nico</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Museumsverband Sachsen-Anhalt e.V.</t>
+          <t>Unterwegs Verlag GmbH</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1359337725</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359337725/04/text</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359337725/04/pdf</t>
+          <t>1348390891</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348390891/04/text</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348390891/04/pdf</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (68), Museum (19)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Märchen, Mühlen, Mahlzeit</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Hiller, Marieta</t>
+          <t>Böhler &amp; Orendt's memory movers</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Odenwald-Redaktion Marieta Hiller, GHS-GbR</t>
+          <t>VfmK Verlag für moderne Kunst GmbH</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3114,753 +3090,753 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1358996679</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358996679/04/text</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358996679/04/pdf</t>
+          <t>1348717440</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348717440/04/text</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348717440/04/pdf</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Bibliographie (1), Manuskript (1)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Queeres Leben in der Großregion</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>Damals wurde uns klar, dass Bleiben Lebensgefahr bedeutete</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Op der Lay</t>
+          <t xml:space="preserve">Lukas Verlag </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1358966893</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358966893/04/text</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358966893/04/pdf</t>
+          <t>1348724501</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348724501/04/text</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348724501/04/pdf</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Buchbinder (1), Verlag (1), Verlagswesen (1)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Deutsches Hafenmuseum Hamburg</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>Wunder Punkt</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Paretsky, Sara</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>HafenCity Universität Hamburg</t>
+          <t xml:space="preserve">Argument Verlag </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1357914830</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357914830/04/text</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357914830/04/pdf</t>
+          <t>1348903813</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348903813/04/text</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1348903813/04/pdf</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Archiv (1), Autograph (1), Autographe (1), Bibliographie (1)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Häuser und ihre Bewohner in den Dörfern Dorweiler, Korweiler und Mannebach der ehemaligen Herrschaft Waldeck</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Pies, Eike</t>
+          <t>Beat Ludwig von Muralt - Philosoph, Mystiker und Rebell</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Edition Dr. Eike Pies im CARDAMINA VERLAG Susanne Breuel</t>
+          <t>Wallstein Verlag</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>135791461X</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135791461X/04/text</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135791461X/04/pdf</t>
+          <t>1349010898</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349010898/04/text</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349010898/04/pdf</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Archiv (2)</t>
+          <t>Buchdruck (1), Kupferstich (1)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Kirchen- und Ortsfamilienbücher im Bestand der Familienstiftung Pies</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>Oppenheim am Rhein</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Edition Dr. Eike Pies im CARDAMINA VERLAG Susanne Breuel</t>
+          <t>Nünnerich-Asmus Verlag &amp; Media</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1357609795</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357609795/04/text</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357609795/04/pdf</t>
+          <t>1349265314</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349265314/04/text</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349265314/04/pdf</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Bibliografie (1)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Von Portugiesen in Hamburg</t>
+          <t>Die Sammlung als Diskursformation</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Köpke, Wulf</t>
+          <t>Regenbrecht, Stephanie</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Stadtmuseum Harburg</t>
+          <t>Edition Metzel</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1352560828</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1352560828/04/text</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1352560828/04/pdf</t>
+          <t>1349473278</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349473278/04/text</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349473278/04/pdf</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Museum (3)</t>
+          <t>Druckverfahren (2), Faksimile (2), Lithographie (7), Lithography (1)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Streifzüge durch Oldenburger Ausstellungen</t>
+          <t>Additive Fertigungsverfahren</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Weichardt, Jürgen</t>
+          <t>Gebhardt, Andreas</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Isensee Verlag</t>
+          <t>Hanser</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>135158930X</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135158930X/04/text</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135158930X/04/pdf</t>
+          <t>1349638005</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349638005/04/text</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349638005/04/pdf</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Handschrift (2), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Spanisch lernen mit Kurzgeschichten</t>
+          <t>Zwischen Zürich und Rio de Janeiro</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gonzales, María</t>
+          <t>Silva, Luis Alves da</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Eulogia Verlags GmbH</t>
+          <t>Bärenreiter</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1351240846</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1351240846/04/text</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1351240846/04/pdf</t>
+          <t>1349638889</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349638889/04/text</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349638889/04/pdf</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Bibliography (1)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Das Peterskloster in der Merseburger Altenburg</t>
+          <t>The scattered library</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fielon, Thorsten</t>
+          <t>Soetaert, Hans P.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Förderkreis Museum Schloss Merseburg e.V</t>
+          <t>ibidem Verlag</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1350462411</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350462411/04/text</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350462411/04/pdf</t>
+          <t>1349847720</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349847720/04/text</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349847720/04/pdf</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (2), Museum (4)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Zur Bedeutung des Vogellaufes</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Waitkus, Wolfgang</t>
+          <t>Glas im Schlossmuseum Sondershausen</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PeWe-Verlag</t>
+          <t>Sandstein Verlag</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1350318655</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350318655/04/text</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1350318655/04/pdf</t>
+          <t>1349855103</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349855103/04/text</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1349855103/04/pdf</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Verlagswesen (1)</t>
+          <t>Verlag (1), Wasserzeichen (1)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Franz Blei: Ideen - Werk - Netzwerk</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>Die Überlieferung der Werke Telemanns</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Frank &amp; Timme Verlag für wissenschaftliche Literatur</t>
+          <t>Georg Olms Verlag</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1349845825</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349845825/04/text</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349845825/04/pdf</t>
+          <t>1350314951</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350314951/04/text</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350314951/04/pdf</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Archiv (1), Druckpapier (1), Fortlaufende Nummerierung (1), Papierformat (1), Typografie (1), Urheberrecht (4), Wasserzeichen (1)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Tierische Spurensuche</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>Unser Büro heute und morgen</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Stephan, Ingrid</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Mitteldeutscher Verlag</t>
+          <t>Westermann Berufliche Bildung</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1349102172</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349102172/04/text</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1349102172/04/pdf</t>
+          <t>1350315710</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350315710/04/text</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350315710/04/pdf</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Druckverfahren (1), Urheberrecht (1)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Rechts und links vom Ringgleis</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>Basiswissen IT-Berufe</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Hegemann, Klaus</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Ideeal Werbeagentur und Verlag GmbH</t>
+          <t>Westermann Berufliche Bildung</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dezember 2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1348900431</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1348900431/04/text</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1348900431/04/pdf</t>
+          <t>1350319007</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350319007/04/text</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350319007/04/pdf</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Korrespondenz (1), Papierformat (1)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Multilingual pedagogies for early years</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>Büro &amp; Co.</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Peter Lang</t>
+          <t>Winklers</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1348721898</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1348721898/04/text</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1348721898/04/pdf</t>
+          <t>1350745804</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350745804/04/text</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1350745804/04/pdf</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Museum (8)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Wachsende Aufgaben, knappe Ressourcen - wohin steuert die Archivarbeit?</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>Gegenstände in Räumen</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kirschmann, Hanswerner</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Dr. Rudolf Habelt GmbH</t>
+          <t>Gerhard-Marcks-Stiftung</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1348498870</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1348498870/04/text</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1348498870/04/pdf</t>
+          <t>1351005413</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351005413/04/text</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351005413/04/pdf</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Bibliography (1)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ausgehoben!</t>
+          <t>Dividing Dar</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Breede, Laura</t>
+          <t>Hege, Patrick</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Sandstein Verlag</t>
+          <t>De Gruyter Oldenbourg</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1347897542</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347897542/04/text</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1347897542/04/pdf</t>
+          <t>1351009613</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351009613/04/text</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351009613/04/pdf</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Museum (5)</t>
+          <t>Druckerei (1), Printing house (1)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Wie die Games ins Museum kamen</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Lange, Andreas</t>
+          <t>100 Beste Plakate 24</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hülsbusch, W</t>
+          <t>Slanted Publishers UG</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1345839324</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345839324/04/text</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345839324/04/pdf</t>
+          <t>1351108573</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351108573/04/text</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351108573/04/pdf</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (4)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ordnungssysteme</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>Zeigen oder Verschließen?</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>universi - Universitätsverlag Siegen</t>
+          <t>Metropol</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1345090609</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345090609/04/text</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1345090609/04/pdf</t>
+          <t>1351109537</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351109537/04/text</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1351109537/04/pdf</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Altertumswissenschaft (1), Bibliografie (1), Handschrift (1)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Krippenausstellungen und Krippentradition in Telgte</t>
+          <t>Eine Chora für die Polis</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Robert, Rüdiger</t>
+          <t>Leeck, Christian</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Waxmann</t>
+          <t>AKRES Publishing</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>10/2024</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1344710573</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1344710573/04/text</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1344710573/04/pdf</t>
+          <t>135170124X</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/135170124X/04/text</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/135170124X/04/pdf</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliographie (1), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Die Schulklasse - kein Gegenstand qualitativer Forschung?</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>Sichtbare Ideologie</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Arras, Yvonne</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Verlag Julius Klinkhardt</t>
+          <t>Tübingen University Press</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3872,37 +3848,37 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1343982642</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1343982642/04/text</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1343982642/04/pdf</t>
+          <t>1352557215</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1352557215/04/text</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1352557215/04/pdf</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Museum (3)</t>
+          <t>Archiv (1), Bibliography (1), Museum (5), Vignette (1)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>"Lebendiges Museum" - 50 Jahre Museumsverein Gars am Kamp 1974-2024</t>
+          <t>Metaphoric language in coffin texts 548 and Book of the dead 93</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ehrenberger, Anton</t>
+          <t>Miatello, Luca</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Museumsverein Gars am Kamp, Zeitbrücke-Museum Gars am Kamp</t>
+          <t>GM Vlg. - Verlag der Göttinger Miszellen</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3914,35 +3890,39 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1343693071</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1343693071/04/text</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1343693071/04/pdf</t>
+          <t>1352629887</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1352629887/04/text</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1352629887/04/pdf</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Archiv (3), Bibliografie (1)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Der Mensch als Hirt der Zeit</t>
+          <t>Die deutschen Kolonien an der Wolga</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Chang, Jonghyuk</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>Beratz, Gottlieb</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Historischer Forschungsverein der Deutschen aus Osteuropa</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>2024</t>
@@ -3952,227 +3932,237 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1342994205</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342994205/04/text</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342994205/04/pdf</t>
+          <t>1353031470</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353031470/04/text</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353031470/04/pdf</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliographie (1), Verzeichnisse (1)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Digitale Hermeneutik</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>Wiskiauten/Mochovoe</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Jahn, Christoph</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hagen University Press</t>
+          <t>Georg Olms Verlag</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1342661842</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342661842/04/text</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342661842/04/pdf</t>
+          <t>1353716295</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353716295/04/text</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353716295/04/pdf</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Museum (3)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>August Sander</t>
+          <t>San Sebastián, Bilbao</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Deeken, Annette</t>
+          <t>Fründt, Hans-Jürgen</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>KUNSTBLATT</t>
+          <t>Reise Know-How Peter Rump GmbH</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1342341678</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342341678/04/text</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1342341678/04/pdf</t>
+          <t>1353922626</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353922626/04/text</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353922626/04/pdf</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Museum (9), Radierung (1), Verlag (1)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Rapunzel Welt</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>Emil Singer 1881-1942</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Junghans, Axel</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Adrian &amp; Wimmelbuchverlag GmbH</t>
+          <t>Selbstverlag A. Junghans</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>Dezember 2024</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1340013215</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1340013215/04/text</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1340013215/04/pdf</t>
+          <t>1353930653</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353930653/04/text</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1353930653/04/pdf</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliographie (1), Buchdruck (1), Handschrift (6)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Welt im Wandel</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>De interiori domo sive Liber de conscientia</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Natur-Museum Goldberg</t>
+          <t>LIT</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>[2024]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1339938596</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1339938596/04/text</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1339938596/04/pdf</t>
+          <t>1354046501</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1354046501/04/text</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1354046501/04/pdf</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Korrespondenz (1)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Communicative AI in (Inter-) Action</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>Unter den Augen des Himmels</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Laudert, Andreas</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>transcript</t>
+          <t>Futurum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1339828642</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1339828642/04/text</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1339828642/04/pdf</t>
+          <t>1354154940</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1354154940/04/text</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1354154940/04/pdf</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Archiv (6)</t>
+          <t>Bibliografie (1), Copyright (1)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Access Kafka</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>Hans Bischoffshausen</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Kerber</t>
+          <t>im Kinsky editionen</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4184,273 +4174,284 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1338197789</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338197789/04/text</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1338197789/04/pdf</t>
+          <t>1354379802</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1354379802/04/text</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1354379802/04/pdf</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliography (1), Initial (1)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Great Escapes Germany. The Hotel Book</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+          <t>Computational thermo-fluid dynamics of aluminothermic welding process</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kewalramani, Ravi Govindram</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>TASCHEN</t>
+          <t>Springer Vieweg</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1337486663</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1337486663/04/text</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1337486663/04/pdf</t>
+          <t>1355074428</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1355074428/04/text</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1355074428/04/pdf</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Ornament (5)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Anna Scalfi Eghenter - the museum game</t>
+          <t>Ornamental Narration</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Scalfi Eghenter, Anna</t>
+          <t>Schmid, Wolf</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Verlag für Moderne Kunst</t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1335205950</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1335205950/04/text</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1335205950/04/pdf</t>
+          <t>1356299008</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356299008/04/text</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356299008/04/pdf</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Museum (3)</t>
+          <t>Archiv (1), Korrespondenz (1), Museum (2)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Displacing and displaying the objects of others</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>Joseph Roth 1922, Schreiben für die Zeitung</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Roth, Joseph</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>De Gruyter Oldenbourg</t>
+          <t>Internationale Joseph Roth Gesellschaft</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1332869513</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1332869513/04/text</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1332869513/04/pdf</t>
+          <t>1356299180</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356299180/04/text</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356299180/04/pdf</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Buchdruck (1)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Vorsorge</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>Joseph Roth 1923, Prosa - das Spinnennetz</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Roth, Joseph</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Wienand</t>
+          <t>Internationale Joseph Roth Gesellschaft</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1330592468</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1330592468/04/text</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1330592468/04/pdf</t>
+          <t>135629930X</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/135629930X/04/text</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/135629930X/04/pdf</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Archiv (1), Bibliographie (1)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Infrastructure aesthetics</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>Joseph Roth 1922, Briefe und andere Dokumente</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Roth, Joseph</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>De Gruyter</t>
+          <t>Internationale Joseph Roth Gesellschaft</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1329328701</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1329328701/04/text</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1329328701/04/pdf</t>
+          <t>1356299342</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356299342/04/text</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356299342/04/pdf</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Archiv (2), Verlag (1)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Die Ersten</t>
+          <t>Joseph Roth 1923, Briefe und andere Dokumente</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Scheepers, Rajah</t>
+          <t>Roth, Joseph</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Evangelische Verlagsanstalt</t>
+          <t>Internationale Joseph Roth Gesellschaft</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1329039424</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1329039424/04/text</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1329039424/04/pdf</t>
+          <t>1356300065</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356300065/04/text</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356300065/04/pdf</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Museum (13)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Die magische Langmatt</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Stegmann, Markus</t>
+          <t>Museumspraxis</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hatje Cantz</t>
+          <t>Museumsbund Österreich</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4462,33 +4463,37 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1328798402</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1328798402/04/text</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1328798402/04/pdf</t>
+          <t>1356309682</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356309682/04/text</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356309682/04/pdf</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Museum (9)</t>
+          <t>Bibliography (1), List of illustrations (1)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Virtual museums - a plea</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>Reading the Odyssey</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Grethlein, Jonas</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Deutscher Kunstverlag</t>
+          <t>Princeton University Press</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4500,884 +4505,3275 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>132803948X</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/132803948X/04/text</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/132803948X/04/pdf</t>
+          <t>1356700144</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356700144/04/text</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1356700144/04/pdf</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliography (1), Museum (1)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Künstlerische Forschung</t>
+          <t>Phenomenology, Soundscape, Music</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Landbrecht, Christina</t>
+          <t>Kopf, James M.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Konstanz University Press</t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1327233983</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1327233983/04/text</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1327233983/04/pdf</t>
+          <t>1357554486</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1357554486/04/text</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1357554486/04/pdf</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (1), Pergament (1)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sylvester of Antioch</t>
+          <t>Architektur zeichnen - Kolorationstechniken</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ţipău, Mihai</t>
+          <t>Modzelewski, Andreas M.</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>De Gruyter</t>
+          <t>BrainBook</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1325845116</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325845116/04/text</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325845116/04/pdf</t>
+          <t>1357714998</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1357714998/04/text</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1357714998/04/pdf</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Initial (1)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Der Henker des Herzogs</t>
+          <t>Das Archiv lebendiger Dokumente</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lehmann, Kai</t>
+          <t>Heck, André</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>wbg Theiss</t>
+          <t>J.B. Metzler</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1325720879</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325720879/04/text</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1325720879/04/pdf</t>
+          <t>1357919565</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1357919565/04/text</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1357919565/04/pdf</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Antiquariat (1), Museum (7)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FIFA Fussball-Weltmeisterschaft™ - Die offizielle WM-Geschichte</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>FIFA Museum, FIFA</t>
+          <t>Lebensart genießen im Fichtelgebirge</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Panini Verlags GmbH</t>
+          <t>selekt</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>Juni 2025</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1315337932</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1315337932/04/text</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1315337932/04/pdf</t>
+          <t>1358342571</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1358342571/04/text</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1358342571/04/pdf</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Buchillustration (1), Holzschnitt (3)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Kirchen. Räume für Gesellschaft</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kil, Wolfgang</t>
+          <t>Der Neü Layenspiegel von Ulrich Tengler</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>M BOOKS</t>
+          <t>Mohr Siebeck</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1313193178</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1313193178/04/text</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1313193178/04/pdf</t>
+          <t>1358344078</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1358344078/04/text</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1358344078/04/pdf</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Archiv (2)</t>
+          <t>Museum (9)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Archive</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+          <t>Ehrenamtlich im Hafenmuseum</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Doleschel, Uwe</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>AvivA</t>
+          <t>Edition Falkenberg</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1304265056</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1304265056/04/text</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1304265056/04/pdf</t>
+          <t>1358418497</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1358418497/04/text</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1358418497/04/pdf</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Bibliografie (1), Copyright (1)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Studien zum antiken Ägypten und verwandten Gebieten</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>Spiegelbild der Worte</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Ciomek, Mario</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>De Gruyter</t>
+          <t>Mario Ciomek</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[2024]</t>
+          <t>[2017]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1358413606</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358413606/04/text</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358413606/04/pdf</t>
+          <t>1359100016</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1359100016/04/text</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1359100016/04/pdf</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Bibliography (1), Initial (1)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inschriften in und an Grünberger Gebäuden und Denkmälern</t>
+          <t>General Topology and Analysis</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Hedrich, Friedel</t>
+          <t>Miloudi, Yamina</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Verkehrsverein 1896 Grünberg e.V.</t>
+          <t>De Gruyter</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1357116292</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357116292/04/text</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1357116292/04/pdf</t>
+          <t>1359700447</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1359700447/04/text</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1359700447/04/pdf</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Bibliographie (1), Korrespondenz (1)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bodensee Reiseführer 2024 - unterwegs mit Ihrer Gästekarte, freie Fahrt mit Bus und Bahn mit  Ihrer EBC</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>Felix Klein (1849–1925)</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Tobies, Renate</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Deutsche Bodensee Tourismus GmbH</t>
+          <t>Springer Berlin</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[2023?]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1295949113</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1295949113/04/text</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1295949113/04/pdf</t>
+          <t>1359873880</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1359873880/04/text</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1359873880/04/pdf</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Bibliographie (1), Manuskript (1)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Beyond Beckmann</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>Bewegte Klänge</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Pöche, Juliane</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>art edition, Verlag Bibliothek der Provinz</t>
+          <t>Königshausen &amp; Neumann</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[2023]</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1326327402</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1326327402/04/text</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1326327402/04/pdf</t>
+          <t>1360011714</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360011714/04/text</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360011714/04/pdf</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (3)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Kuriose Orte in Hamburg</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Krieg, Susanne</t>
+          <t>Bernhard Mendes Bürgi</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Elbville Verlag</t>
+          <t>Hatje Cantz</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[2022]</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1250783526</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1250783526/04/text</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1250783526/04/pdf</t>
+          <t>1360012109</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360012109/04/text</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360012109/04/pdf</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Museum (3)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Bercht &amp; Percht im Alpenraum</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Moser, Barbara</t>
+          <t>Bernhard Mendes Bürgi</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Edition Tirol</t>
+          <t>Hatje Cantz</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1213100445</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1213100445/04/text</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1213100445/04/pdf</t>
+          <t>1360013164</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360013164/04/text</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360013164/04/pdf</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Bibliography (1), Museum (2)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Auf der Suche nach dem ältesten Hafen Rostocks</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Messal, Sebastian</t>
+          <t>Staging the Nation in an Intermediate Space</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>NIhK Niedersächsisches Institut für historische Küstenforschung</t>
+          <t>De Gruyter Oldenbourg</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1201666465</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1201666465/04/text</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1201666465/04/pdf</t>
+          <t>1360355901</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360355901/04/text</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1360355901/04/pdf</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Archiv (1)</t>
+          <t>Bibliography (1), Initial (1)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Vertraute Einschicht</t>
+          <t>Development of a tree-based model for the fast generation of large point clouds representing particle showers in calorimeters</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Tuschar, Hans M.</t>
+          <t>Scham, Moritz</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hans M. Tuschar</t>
+          <t>Deutsches Elektronen-Synchrotron DESY</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[2019]</t>
+          <t>February 2025</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>135858138X</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135858138X/04/text</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135858138X/04/pdf</t>
+          <t>1361710322</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361710322/04/text</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361710322/04/pdf</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (2), Bibliography (1)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Das Schokoladenbuch</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
+          <t>Documentary theatre in India</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Ed. Quadrat</t>
+          <t>transcript</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1358594880</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358594880/04/text</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358594880/04/pdf</t>
+          <t>1361710411</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361710411/04/text</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361710411/04/pdf</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Museum (4)</t>
+          <t>Archiv (1), Bibliography (1)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Kassel Kunst Kultur</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
+          <t>Healing Holocaust Survivors</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Frei, Stella Maria</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Stadtmarketing</t>
+          <t>De Gruyter Oldenbourg</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1358608822</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358608822/04/text</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1358608822/04/pdf</t>
+          <t>1361795727</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361795727/04/text</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361795727/04/pdf</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Museum (2)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Atelier nw 8 Dokumentation 1969-1973</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Hupe, Ilona</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>international artist's cooperation</t>
+          <t>Ilona Hupe Verlag</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>Mai 2025</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>136047997X</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/136047997X/04/text</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/136047997X/04/pdf</t>
+          <t>1361905662</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361905662/04/text</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361905662/04/pdf</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Museum (2)</t>
+          <t>Archiv (14), Museum (1)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Das goldene Buch von Florenz</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
+          <t>Die Gewerkschaft Erziehung und Wissenschaft im Einheits- und Transformationsprozess</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Goll, Jörn-Michael</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Bonechi</t>
+          <t>Beltz Juventa</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1360481613</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1360481613/04/text</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1360481613/04/pdf</t>
+          <t>1361916184</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361916184/04/text</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1361916184/04/pdf</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Buchverlag (2), Verlag (5)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Das ozeanographische Museum</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
+          <t>Inventur - Schulbücher jüdisch-christlich bedenken</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Musée océanographique</t>
+          <t xml:space="preserve">Beltz Juventa </t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1360402691</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1360402691/04/text</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1360402691/04/pdf</t>
+          <t>1362325325</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362325325/04/text</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362325325/04/pdf</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Archiv (1), Museum (2)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AMF Automobil-Museum, Fichtelberg</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
+          <t>Total alles über den Schwarzwald/The Complete Black Forest</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>AMF</t>
+          <t>Folio</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1359287159</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359287159/04/text</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/1359287159/04/pdf</t>
+          <t>1362697907</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362697907/04/text</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362697907/04/pdf</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Museum (10)</t>
+          <t>Bibliografie (1), Verlag (2)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Die Etrusker</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
+          <t>Zwischen Anpassung und Auflehnung: Mouloud Feraoun im literarischen Feld</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kremer, Ines</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Istituto Geografico De Agostini</t>
+          <t>WVT Wissenschaftlicher Verlag Trier</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>135843266X</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135843266X/04/text</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>https://d-nb.info/135843266X/04/pdf</t>
+          <t>1362744115</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362744115/04/text</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362744115/04/pdf</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Museum (1)</t>
+          <t>Buchdruck (2), Druckerei (1)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Kasseler Museen</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Lehmann, Jürgen M.</t>
+          <t>Das gedruckte Buch im Vorderen Orient</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Kaufhof AG</t>
+          <t>VfO, Verlag für Orientkunde</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[1981]</t>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1362744220</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362744220/04/text</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362744220/04/pdf</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Bibliographie (1), Handschrift (2)</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Die Erzählungen aus Tausendundeiner Nacht</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Grotzfeld, Heinz</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Verlag für Orientkunde</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1362744646</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362744646/04/text</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362744646/04/pdf</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Bibliography (1), Book illustration (1), Manuscript (5)</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>The Persian romance Samak-e ʿayyār</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Zenhari, Roxana</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Verlag für Orientkunde</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>136274476X</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136274476X/04/text</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136274476X/04/pdf</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Bibliography (1), Manuscript (1)</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>The Juʿaydiyya cycle</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Lerner, Amir</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Verlag für Orientkunde</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1362745316</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362745316/04/text</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362745316/04/pdf</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Bibliography (1), Museum (1)</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Narrative illustration on Qajar tilework in Shiraz</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Seyed Mousavi, Atefeh</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Verlag für Orientkunde</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1362843148</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362843148/04/text</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1362843148/04/pdf</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Bibliographie (1), Lecture (2)</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Postcolonialisme, femmes et migration dans l’oeuvre de Shumona Sinha</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>AVM.edition</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1363204823</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363204823/04/text</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363204823/04/pdf</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Bibliography (1), List of illustrations (1)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>And we’ll never be parted</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Hatje Cantz</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1363296655</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363296655/04/text</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363296655/04/pdf</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Urheberrecht (1), Verlag (8)</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Der Technische Betriebswirt</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Feldhaus</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1363423967</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363423967/04/text</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363423967/04/pdf</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Handschrift (2), Verzeichnisse (1)</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Die Vita Abt Wilhelms von Hirsau</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Harrassowitz Verlag</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1363522620</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363522620/04/text</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363522620/04/pdf</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Bibliographie (1), Couverture (1), Illumination (1), Table des illustrations (1)</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Le nouvel empire des kami</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>L'Hérisson, Édouard</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>De Gruyter Oldenbourg</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1363984918</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363984918/04/text</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1363984918/04/pdf</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Archiv (24), Archivwesen (1)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Die Gedächtnisfabrik</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Éditions Alphil</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1364158116</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1364158116/04/text</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1364158116/04/pdf</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Lecture (2)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Prizes are good but discoveries are better</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Eschenmoser, Albert</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>GNT Publishing GmbH</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>136433464X</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136433464X/04/text</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136433464X/04/pdf</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Archiv (1), Verzeichnisse (1)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Einflüsse einer pansengeschützten Methionin- und Lysin-Supplementation der Futterration auf die Entwicklungskompetenz boviner Kumulus-Oozyten-Komplexe</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Ritz, Markus</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Deutsche Veterinärmedizinische Gesellschaft Service GmbH</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>136498153X</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136498153X/04/text</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136498153X/04/pdf</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Bibliography (1), Colophon (1)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Suzanne Duchamp</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kwartler, Talia</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Hatje Cantz</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1365010856</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365010856/04/text</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365010856/04/pdf</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Lecture (2)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>La littérature migratoire au féminin à l’interface entre l’"Orient" et l’"Occident"</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>AVM.edition</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136544998X</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136544998X/04/text</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136544998X/04/pdf</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Bibliography (1), Manuscript (1)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Jacob Mann: A Centennial Review</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>De Gruyter</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1365452719</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365452719/04/text</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365452719/04/pdf</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Autograph (1), Autographe (1)</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Saǧʿ al-muṭawwaq</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Ibn-Nubāta, Muḥammad Ibn-Muḥammad</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Ergon Verlag</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1365615065</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365615065/04/text</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365615065/04/pdf</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Archiv (22), Archivwesen (1), Museum (2)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Archive in der Region Hannover</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[Niedersächsisches Hauptstaatsarchiv]</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1365697495</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365697495/04/text</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1365697495/04/pdf</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Bibliografie (1), Museum (1)</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Der Engel der Geschichte</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>arthistoricum.net</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1366632176</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1366632176/04/text</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1366632176/04/pdf</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Archiv (5), Bibliografie (1)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Trans* Geschichten der Moderne</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Garde, Jonah I.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>transcript</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1366634276</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1366634276/04/text</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1366634276/04/pdf</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Druckerei (1), Siebdruck (1)</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Leben - Liebe - Lüge</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sigmund, Reinhold</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>axel dielmann - verlag</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1367017092</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1367017092/04/text</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1367017092/04/pdf</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Handschrift (2), Verzeichnisse (1)</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Wortgewandte Wappen</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Hoder, Manuel</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Reichert Verlag Wiesbaden</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1367733480</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1367733480/04/text</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1367733480/04/pdf</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Museum (3)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Erlebnisräume.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Deutscher Architektur Verlag</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1367853028</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1367853028/04/text</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1367853028/04/pdf</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Handschrift (3)</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Gnomologium Byzantinum</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Gerlach, Jens</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Dr. Ludwig Reichert Verlag</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1368036910</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368036910/04/text</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368036910/04/pdf</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Archiv (1), Initial (2)</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Akute Herzinsuffizienz und kardiogener Schock in der peripartalen Kardiomyopathie</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Calmbach, Louis Christian</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1368093132</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368093132/04/text</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368093132/04/pdf</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Archiv (2), Verlag (1)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Vom Flakturm IV zum Grünen Bunker</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Lau, Dirk</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Schaff</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1368505880</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368505880/04/text</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368505880/04/pdf</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Korrespondenz (1), Urheberrecht (1), Verlag (1)</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Social-Media-Accounts verstorbener Personen</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Herzing, Anna</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Mohr Siebeck</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1368506402</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368506402/04/text</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368506402/04/pdf</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Urheberrecht (7), Verlag (2)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Handlungslasten des Urhebers</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Rostam, Darius</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Mohr Siebeck</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1368532977</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368532977/04/text</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368532977/04/pdf</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Archiv (1), Bibliography (1)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>The Founder</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Schäfer, Cyrill</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1368621511</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368621511/04/text</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368621511/04/pdf</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Museum (4)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Translozierung.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Borngässer, Barbara</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Phoibos-Vlg</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1368766722</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368766722/04/text</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368766722/04/pdf</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Buchhandel (1), Buchpreis (1)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Unternehmensnachfolge im Buchhandel</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Merzbach, Joachim</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Bramann</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1368768598</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368768598/04/text</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1368768598/04/pdf</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Buchmarkt (1), Zensur (2)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Alltagskultur im Vormärz</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Aisthesis Verlag</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1369035012</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369035012/04/text</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369035012/04/pdf</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Museum (2)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Informationsbroschüre Wehr</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>mediaprint infoverlag gmbh</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1369108877</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369108877/04/text</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369108877/04/pdf</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Lecture (3)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>International Conference "Preventing crimes of genocide and mass atrocities throught international humanitarian law instruments"</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Academica Greifswald, Publishing House</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>136921457X</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136921457X/04/text</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136921457X/04/pdf</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Korrespondenz (1), Papierformat (1)</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Büro &amp; Co.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Winklers</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>136968066X</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136968066X/04/text</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136968066X/04/pdf</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Archiv (4), Druckerei (1)</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Haus Marlene Poelzig, Berlin</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>urbanophil</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1369924836</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369924836/04/text</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369924836/04/pdf</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Archiv (5), Museum (1)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Frühjahrsputz im Archiv?</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>VdA - Verband Deutscher Archivarinnen und Archivare e.V.</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1369925123</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369925123/04/text</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369925123/04/pdf</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Archiv (12), Archivwesen (1), Langzeitarchivierung (1)</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Vom Analogen zum Digitalen - Chance oder Dilemma?</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>VdA - Verband Deutscher Archivarinnen und Archivare e.V.</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1369925441</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369925441/04/text</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369925441/04/pdf</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Archiv (8), Bestandserhaltung (1)</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Archivische Öffentlichkeitsarbeit und historische Bildungsarbeit im 21. Jahrhundert - Pflicht oder Kür?</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>VdA - Verband Deutscher Archivarinnen und Archivare e.V.</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>136992965X</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136992965X/04/text</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/136992965X/04/pdf</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Archiv (51), Buchwesen (1), Druckerei (1), Verlag (1), Verzeichnisse (1)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Staatsarchiv des Kantons Thurgau - Beständeübersicht 2025</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Staatsarchiv des Kantons Thurgau</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1369964382</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369964382/04/text</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1369964382/04/pdf</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Archiv (1), Zensur (1)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Die Rohrpost in Ostberlin und Leipzig</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Reifferscheid, Wolfgang</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Gebr. Kügler GmbH</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>[2025?]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1370306407</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370306407/04/text</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370306407/04/pdf</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Museum (2)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Verbandsgemeinde Herxheim</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>BVB-Verlagsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1370407572</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370407572/04/text</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370407572/04/pdf</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Museum (4)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>125 Jahre Stadtmuseum im Augustinerkloster</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Stadtmuseum im Augustinerkloster</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1370413955</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370413955/04/text</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370413955/04/pdf</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Bibliography (1), Manuscript (2)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Studying intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Brändle, Franziska</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1370417187</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370417187/04/text</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370417187/04/pdf</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Bindemittel (6), Hochdruck (1)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Kautschuktechnologie</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Limper, Andreas</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Hanser</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1370428057</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370428057/04/text</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370428057/04/pdf</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Autograph (2)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Nonett Es-Dur</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Accolade Musikverlag</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1370519958</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370519958/04/text</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370519958/04/pdf</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Archiv (1), Verlag (1)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Vom Apfelpapst, Bourvil und Co</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Lutz-Rüdiger Schöning</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1370521634</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370521634/04/text</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370521634/04/pdf</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Archiv (3), Verzeichnisse (2)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>DSGVO &amp; BDSG &amp; TTDSG Gesetzessammlung</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Dr. Herwig Pant</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1370600143</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370600143/04/text</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370600143/04/pdf</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Handschrift (3), Museum (1)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Abenteuer</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Stiftung Handschrift</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1370606397</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370606397/04/text</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370606397/04/pdf</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Archiv (1), Autograph (2)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Beat Ludwig von Muralt - Philosoph, Mystiker und Rebell</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Wallstein Verlag</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>[2025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1370612982</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370612982/04/text</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370612982/04/pdf</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Korrespondenz (1), Verlag (1), Zensur (1)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Gesammelte Werke</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Weber, Robert</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Izdatelʹstvo "Pero"</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1370613466</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370613466/04/text</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370613466/04/pdf</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Museum (1), Pergament (1)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Gesammelte Werke</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Weber, Robert</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Izdatelʹstvo "Pero"</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1370625944</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370625944/04/text</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>https://d-nb.info/1370625944/04/pdf</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Korrektorat (1), Zensur (1)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Von der Erinnerung zum Buch</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Raabe, Ralf</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Dr. Ralf Raabe</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>[2025]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C31" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C39" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C40" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C41" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C44" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C45" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C46" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C47" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B79" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B80" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B81" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B82" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B83" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B84" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B85" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B86" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B87" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B88" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B89" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B90" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B91" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B92" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B93" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B94" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B95" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C95" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B96" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C96" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B97" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C97" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B98" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C98" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B99" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C99" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B100" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C100" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B101" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C101" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B102" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C102" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B103" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C103" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B104" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C104" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B105" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C105" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B106" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C106" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B107" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C107" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B108" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C108" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B109" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C109" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B110" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C110" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B111" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C111" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B112" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C112" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B113" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C113" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C114" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C115" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C116" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C117" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C118" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C119" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C120" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C121" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C122" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C123" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C124" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C125" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C126" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C127" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C128" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C129" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C130" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" r:id="rId259"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C131" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C132" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C133" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId265"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C134" r:id="rId266"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" r:id="rId267"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C135" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C136" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C137" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C138" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C139" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C140" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C141" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C142" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" r:id="rId283"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C143" r:id="rId284"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" r:id="rId285"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C144" r:id="rId286"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId287"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C145" r:id="rId288"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId289"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C146" r:id="rId290"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId291"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C147" r:id="rId292"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId293"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C148" r:id="rId294"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" r:id="rId295"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C149" r:id="rId296"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId297"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C150" r:id="rId298"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId299"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C151" r:id="rId300"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B152" r:id="rId301"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C152" r:id="rId302"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B153" r:id="rId303"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C153" r:id="rId304"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B154" r:id="rId305"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C154" r:id="rId306"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B155" r:id="rId307"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C155" r:id="rId308"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B156" r:id="rId309"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C156" r:id="rId310"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B157" r:id="rId311"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C157" r:id="rId312"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B158" r:id="rId313"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C158" r:id="rId314"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B159" r:id="rId315"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C159" r:id="rId316"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B160" r:id="rId317"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C160" r:id="rId318"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B161" r:id="rId319"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C161" r:id="rId320"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B162" r:id="rId321"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C162" r:id="rId322"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B163" r:id="rId323"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C163" r:id="rId324"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B164" r:id="rId325"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C164" r:id="rId326"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B165" r:id="rId327"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C165" r:id="rId328"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B166" r:id="rId329"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C166" r:id="rId330"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B167" r:id="rId331"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C167" r:id="rId332"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B168" r:id="rId333"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C168" r:id="rId334"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B169" r:id="rId335"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C169" r:id="rId336"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B170" r:id="rId337"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C170" r:id="rId338"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B171" r:id="rId339"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C171" r:id="rId340"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B172" r:id="rId341"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C172" r:id="rId342"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B173" r:id="rId343"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C173" r:id="rId344"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B174" r:id="rId345"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C174" r:id="rId346"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>